--- a/document/excel_upload_자료/TBL_EXP_USER.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_USER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF5480-65F1-45B6-BA04-A36BFAEF4975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6C0EE4-D107-4851-80C6-7555AFA88A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="5415" yWindow="2115" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,9 +77,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>SP_CSTM_ID</t>
-  </si>
-  <si>
     <t>USER_ID</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>PHONE_NUM</t>
   </si>
   <si>
-    <t>BRANCH_ID</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>REG_DATE</t>
-  </si>
-  <si>
     <t>JUMIN</t>
   </si>
   <si>
@@ -122,166 +113,177 @@
     <t>ADDR2</t>
   </si>
   <si>
-    <t>UPDATE_USER</t>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
+    <t>SALES_TYPE</t>
+  </si>
+  <si>
+    <t>USE_YN</t>
+  </si>
+  <si>
+    <t>DEL_YN</t>
+  </si>
+  <si>
+    <t>RECOMMENDER_ID</t>
+  </si>
+  <si>
+    <t>USER_PW</t>
+  </si>
+  <si>
+    <t>010-3252-3102</t>
+  </si>
+  <si>
+    <t>S_MASTER</t>
+  </si>
+  <si>
+    <t>INUSE</t>
+  </si>
+  <si>
+    <t>경기 수원시 영통구 덕영대로 1462-14</t>
+  </si>
+  <si>
+    <t>jonsaram</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PRIME_MANAGER</t>
+  </si>
+  <si>
+    <t>위성열</t>
+  </si>
+  <si>
+    <t>jonsaram@naver.com</t>
+  </si>
+  <si>
+    <t>104-2401</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIVISION_ID</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>PIC_NUM</t>
+  </si>
+  <si>
+    <t>trigger7kr</t>
+  </si>
+  <si>
+    <t>SALES_DIV_700</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>운영자</t>
+  </si>
+  <si>
+    <t>admin12!@</t>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SURETY_INSURANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직할/외부(DIRECT/OUT_SIDE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보증보험/공증
+(SURETY_INSURANCE/NOTALIZATION)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GENDER</t>
-  </si>
-  <si>
-    <t>SALES_TYPE</t>
-  </si>
-  <si>
-    <t>USE_YN</t>
-  </si>
-  <si>
-    <t>DEL_YN</t>
-  </si>
-  <si>
-    <t>RECOMMENDER_ID</t>
-  </si>
-  <si>
-    <t>USER_PW</t>
-  </si>
-  <si>
-    <t>starasset</t>
-  </si>
-  <si>
-    <t>010-3252-3102</t>
-  </si>
-  <si>
-    <t>ILSAN_1_1</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>S_MASTER</t>
-  </si>
-  <si>
-    <t>INUSE</t>
-  </si>
-  <si>
-    <t>경기 수원시 영통구 덕영대로 1462-14</t>
-  </si>
-  <si>
-    <t>jonsaram</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>DIRECT</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>유태원</t>
-  </si>
-  <si>
-    <t>010-9522-5440</t>
-  </si>
-  <si>
-    <t>PRIME_MANAGER</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>trigger7@naver.com</t>
-  </si>
-  <si>
-    <t>731012-1178013</t>
-  </si>
-  <si>
-    <t>windrider</t>
-  </si>
-  <si>
-    <t>이응규</t>
-  </si>
-  <si>
-    <t>kbntt73@gmail.com</t>
-  </si>
-  <si>
-    <t>010-8942-8995</t>
-  </si>
-  <si>
-    <t>ILSAN_3_1</t>
-  </si>
-  <si>
-    <t>730313-1222545</t>
-  </si>
-  <si>
-    <t>위성열</t>
-  </si>
-  <si>
-    <t>jonsaram@naver.com</t>
-  </si>
-  <si>
-    <t>104-2401</t>
-  </si>
-  <si>
-    <t>이희성</t>
-  </si>
-  <si>
-    <t>STARASSET</t>
-  </si>
-  <si>
-    <t>K2navyrd@starasset.co.kr</t>
-  </si>
-  <si>
-    <t>010-3361-6569</t>
-  </si>
-  <si>
-    <t>710112-1178</t>
-  </si>
-  <si>
-    <t>서울시 강남구 삼성동</t>
-  </si>
-  <si>
-    <t>XX_XXX 100-203</t>
-  </si>
-  <si>
-    <t>TAEWOn</t>
-  </si>
-  <si>
-    <t>BUSAN_2_2</t>
-  </si>
-  <si>
-    <t>MASTER</t>
-  </si>
-  <si>
-    <t>경기 화성시 동탄시범한빛길 38</t>
-  </si>
-  <si>
-    <t>216-1302</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starasset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taewon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별(MAN/WOMAN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천인ID(OVERIDE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_DATE:D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,11 +485,11 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -829,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.25" defaultRowHeight="16.5"/>
@@ -842,27 +844,27 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.125" customWidth="1"/>
+    <col min="15" max="15" width="22.625" customWidth="1"/>
+    <col min="16" max="16" width="31.625" customWidth="1"/>
+    <col min="17" max="17" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="22" max="22" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -881,9 +883,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="24">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="24">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -900,12 +901,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1">
+    <row r="3" spans="1:23" s="1" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
@@ -917,7 +918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:23">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -943,410 +944,262 @@
         <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="U4" s="10" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:23" ht="27">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="11" t="s">
+      <c r="S5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="I6" s="12">
+        <v>45323</v>
+      </c>
+      <c r="J6">
+        <v>741222</v>
+      </c>
+      <c r="K6">
+        <v>16685</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="11" t="s">
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6">
+        <v>1234</v>
+      </c>
+      <c r="U6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12">
+        <v>45323</v>
+      </c>
+      <c r="J7">
+        <v>741222</v>
+      </c>
+      <c r="K7">
+        <v>16685</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="R7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="13">
-        <v>45323</v>
-      </c>
-      <c r="L6" s="12">
-        <v>741222</v>
-      </c>
-      <c r="M6" s="12">
-        <v>16685</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>45400.671458333331</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="12" t="s">
+      <c r="S7" t="s">
         <v>44</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="12">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="13">
-        <v>36526.000011574077</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>45376.763472222221</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="12">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="T7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="V7" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="13">
-        <v>45323</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="12">
-        <v>18437</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>45401.741099537037</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="12">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="13">
-        <v>38509</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>45342</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="12">
-        <v>1234</v>
+      <c r="W7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1355,5 +1208,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>